--- a/GUI + Reviews/output/TECHP_sectorial_20250806_113335.xlsx
+++ b/GUI + Reviews/output/TECHP_sectorial_20250806_113335.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_B3DAD50047E7B1826D045AA645CAEC143F429D4C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8DC7FD-9E77-4064-A442-0A86FA0EE6D6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_B3DAD50047E7B1826D045AA645CAEC143F429D4C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA22834D-F571-42C6-9176-744E2E388869}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
@@ -775,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -827,7 +827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -853,7 +853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -879,7 +879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -905,7 +905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -931,7 +931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -957,7 +957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -983,7 +983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1189,10 +1189,6 @@
       </c>
       <c r="H16" t="s">
         <v>52</v>
-      </c>
-      <c r="J16">
-        <f>0.7*7.30767</f>
-        <v>5.1153689999999994</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
